--- a/CrackedCodeBook/Cracked book.xlsx
+++ b/CrackedCodeBook/Cracked book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\SMU\Lab2\CrackedCodeBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8840D79E-BD09-43A4-A707-09DF01B1CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9787F-BE73-4653-BAAF-CB06A470DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39615" yWindow="5910" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="238">
   <si>
     <t>PLAIN TEXT:</t>
   </si>
@@ -147,29 +147,605 @@
     <t>andy</t>
   </si>
   <si>
-    <t>firstName5</t>
-  </si>
-  <si>
     <t>armstrong</t>
   </si>
   <si>
-    <t>lastName4</t>
-  </si>
-  <si>
     <t>coleman</t>
   </si>
   <si>
-    <t>LastName7</t>
-  </si>
-  <si>
-    <t>TEAM B SPECIAL CODE BOOK</t>
+    <t>saint martins university</t>
+  </si>
+  <si>
+    <t>placename1</t>
+  </si>
+  <si>
+    <t>placename2</t>
+  </si>
+  <si>
+    <t>placename3</t>
+  </si>
+  <si>
+    <t>placename4</t>
+  </si>
+  <si>
+    <t>placename5</t>
+  </si>
+  <si>
+    <t>placename6</t>
+  </si>
+  <si>
+    <t>placename7</t>
+  </si>
+  <si>
+    <t>placename8</t>
+  </si>
+  <si>
+    <t>placename9</t>
+  </si>
+  <si>
+    <t>placename10</t>
+  </si>
+  <si>
+    <t>placename11</t>
+  </si>
+  <si>
+    <t>placename12</t>
+  </si>
+  <si>
+    <t>placename13</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>olympia</t>
+  </si>
+  <si>
+    <t>tacoma</t>
+  </si>
+  <si>
+    <t>word1</t>
+  </si>
+  <si>
+    <t>word2</t>
+  </si>
+  <si>
+    <t>word3</t>
+  </si>
+  <si>
+    <t>word4</t>
+  </si>
+  <si>
+    <t>word5</t>
+  </si>
+  <si>
+    <t>word6</t>
+  </si>
+  <si>
+    <t>word7</t>
+  </si>
+  <si>
+    <t>word8</t>
+  </si>
+  <si>
+    <t>word9</t>
+  </si>
+  <si>
+    <t>word10</t>
+  </si>
+  <si>
+    <t>word11</t>
+  </si>
+  <si>
+    <t>word12</t>
+  </si>
+  <si>
+    <t>word13</t>
+  </si>
+  <si>
+    <t>word14</t>
+  </si>
+  <si>
+    <t>word15</t>
+  </si>
+  <si>
+    <t>word16</t>
+  </si>
+  <si>
+    <t>word17</t>
+  </si>
+  <si>
+    <t>word18</t>
+  </si>
+  <si>
+    <t>word19</t>
+  </si>
+  <si>
+    <t>word20</t>
+  </si>
+  <si>
+    <t>word21</t>
+  </si>
+  <si>
+    <t>word22</t>
+  </si>
+  <si>
+    <t>word23</t>
+  </si>
+  <si>
+    <t>word24</t>
+  </si>
+  <si>
+    <t>word25</t>
+  </si>
+  <si>
+    <t>word26</t>
+  </si>
+  <si>
+    <t>word27</t>
+  </si>
+  <si>
+    <t>word28</t>
+  </si>
+  <si>
+    <t>word29</t>
+  </si>
+  <si>
+    <t>word30</t>
+  </si>
+  <si>
+    <t>word31</t>
+  </si>
+  <si>
+    <t>word32</t>
+  </si>
+  <si>
+    <t>word33</t>
+  </si>
+  <si>
+    <t>word34</t>
+  </si>
+  <si>
+    <t>word35</t>
+  </si>
+  <si>
+    <t>word36</t>
+  </si>
+  <si>
+    <t>word37</t>
+  </si>
+  <si>
+    <t>word38</t>
+  </si>
+  <si>
+    <t>word39</t>
+  </si>
+  <si>
+    <t>word40</t>
+  </si>
+  <si>
+    <t>word41</t>
+  </si>
+  <si>
+    <t>word42</t>
+  </si>
+  <si>
+    <t>word43</t>
+  </si>
+  <si>
+    <t>word44</t>
+  </si>
+  <si>
+    <t>word45</t>
+  </si>
+  <si>
+    <t>word46</t>
+  </si>
+  <si>
+    <t>word47</t>
+  </si>
+  <si>
+    <t>word48</t>
+  </si>
+  <si>
+    <t>word49</t>
+  </si>
+  <si>
+    <t>word50</t>
+  </si>
+  <si>
+    <t>word51</t>
+  </si>
+  <si>
+    <t>word52</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>lacey</t>
+  </si>
+  <si>
+    <t>TEAM LOCATION CODE BOOK</t>
+  </si>
+  <si>
+    <t>TEAM B NAME CODE BOOK</t>
+  </si>
+  <si>
+    <t>TEAM B WORD CODE BOOK</t>
+  </si>
+  <si>
+    <t>lastname1</t>
+  </si>
+  <si>
+    <t>lastname4</t>
+  </si>
+  <si>
+    <t>firstname5</t>
+  </si>
+  <si>
+    <t>ragotero</t>
+  </si>
+  <si>
+    <t>firstname1</t>
+  </si>
+  <si>
+    <t>krizia</t>
+  </si>
+  <si>
+    <t>firstname2</t>
+  </si>
+  <si>
+    <t>nadaa</t>
+  </si>
+  <si>
+    <t>lastname2</t>
+  </si>
+  <si>
+    <t>elbarbary</t>
+  </si>
+  <si>
+    <t>firstname3</t>
+  </si>
+  <si>
+    <t>cole</t>
+  </si>
+  <si>
+    <t>firstname4</t>
+  </si>
+  <si>
+    <t>landon</t>
+  </si>
+  <si>
+    <t>firstname6</t>
+  </si>
+  <si>
+    <t>farzin</t>
+  </si>
+  <si>
+    <t>firstname7</t>
+  </si>
+  <si>
+    <t>zendaya</t>
+  </si>
+  <si>
+    <t>kartchner</t>
+  </si>
+  <si>
+    <t>lastname3</t>
+  </si>
+  <si>
+    <t>lastname5</t>
+  </si>
+  <si>
+    <t>choi</t>
+  </si>
+  <si>
+    <t>bahadori</t>
+  </si>
+  <si>
+    <t>lastname6</t>
+  </si>
+  <si>
+    <t>lastname7</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>disneyworld</t>
+  </si>
+  <si>
+    <t>taco bell</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>mochinut</t>
+  </si>
+  <si>
+    <t>safeway</t>
+  </si>
+  <si>
+    <t>croatia</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>coast</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>kid</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>orchestra</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>calculus</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>word53</t>
+  </si>
+  <si>
+    <t>word54</t>
+  </si>
+  <si>
+    <t>word55</t>
+  </si>
+  <si>
+    <t>word56</t>
+  </si>
+  <si>
+    <t>word57</t>
+  </si>
+  <si>
+    <t>word58</t>
+  </si>
+  <si>
+    <t>word59</t>
+  </si>
+  <si>
+    <t>word60</t>
+  </si>
+  <si>
+    <t>word61</t>
+  </si>
+  <si>
+    <t>word62</t>
+  </si>
+  <si>
+    <t>word63</t>
+  </si>
+  <si>
+    <t>word64</t>
+  </si>
+  <si>
+    <t>word65</t>
+  </si>
+  <si>
+    <t>word66</t>
+  </si>
+  <si>
+    <t>word67</t>
+  </si>
+  <si>
+    <t>word68</t>
+  </si>
+  <si>
+    <t>word69</t>
+  </si>
+  <si>
+    <t>word70</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>galaxy</t>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>ivory</t>
+  </si>
+  <si>
+    <t>jewel</t>
+  </si>
+  <si>
+    <t>kaleidoscope</t>
+  </si>
+  <si>
+    <t>labyrinth</t>
+  </si>
+  <si>
+    <t>majesty</t>
+  </si>
+  <si>
+    <t>neubula</t>
+  </si>
+  <si>
+    <t>oasis</t>
+  </si>
+  <si>
+    <t>pinnacle</t>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>riviera</t>
+  </si>
+  <si>
+    <t>serenity</t>
+  </si>
+  <si>
+    <t>tundra</t>
+  </si>
+  <si>
+    <t>utopia</t>
+  </si>
+  <si>
+    <t>word71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +801,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +845,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -495,11 +1082,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,43 +1272,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,8 +1287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,6 +1305,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,7 +1320,144 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -892,17 +1740,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1059,26 +1909,26 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="20">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20">
+      <c r="C5" s="24"/>
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20">
+      <c r="E5" s="24"/>
+      <c r="F5" s="23">
         <v>3</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20">
+      <c r="G5" s="24"/>
+      <c r="H5" s="23">
         <v>4</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20">
+      <c r="I5" s="24"/>
+      <c r="J5" s="23">
         <v>5</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
@@ -1113,40 +1963,40 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23">
         <v>7</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20">
+      <c r="E8" s="24"/>
+      <c r="F8" s="23">
         <v>8</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20">
+      <c r="G8" s="24"/>
+      <c r="H8" s="23">
         <v>9</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20">
+      <c r="I8" s="24"/>
+      <c r="J8" s="23">
         <v>0</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -1186,26 +2036,26 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1240,40 +2090,40 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="20" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -1308,38 +2158,38 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -1374,38 +2224,38 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="20" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -1440,38 +2290,38 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20" t="s">
+      <c r="I24" s="24"/>
+      <c r="J24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1506,22 +2356,22 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1547,301 +2397,1241 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-    </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="35"/>
-    </row>
-    <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="22"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="31" t="s">
+      <c r="L36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O36" s="31" t="s">
+      <c r="O36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P36" s="31" t="s">
+      <c r="P36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="31" t="s">
+      <c r="Q36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="31" t="s">
+      <c r="R36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S36" s="31" t="s">
+      <c r="S36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T36" s="31" t="s">
+      <c r="T36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U36" s="31" t="s">
+      <c r="U36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="31" t="s">
+      <c r="V36" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W36" s="31" t="s">
+      <c r="W36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="X36" s="31" t="s">
+      <c r="X36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Y36" s="31" t="s">
+      <c r="Y36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="26" t="s">
+      <c r="N37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="26" t="s">
+      <c r="P37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Q37" s="26" t="s">
+      <c r="Q37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R37" s="26" t="s">
+      <c r="R37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S37" s="26" t="s">
+      <c r="S37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="T37" s="26" t="s">
+      <c r="T37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="U37" s="26" t="s">
+      <c r="U37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="V37" s="26" t="s">
+      <c r="V37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W37" s="26" t="s">
+      <c r="W37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="X37" s="26" t="s">
+      <c r="X37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Y37" s="26" t="s">
+      <c r="Y37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Z37" s="27" t="s">
+      <c r="Z37" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="49"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M41" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="N41" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="49"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="49"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="49"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="49"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="49"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="49"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="35"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
+      <c r="D47" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="41"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="N51" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="O51" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="P51" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q51" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="R51" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="S51" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="T51" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="U51" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="V51" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="W51" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="X51" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y51" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z51" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="N52" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="O52" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="R52" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="S52" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="T52" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="U52" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="V52" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="W52" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="X52" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y52" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z52" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="63"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="L54" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="M54" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="N54" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="O54" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="P54" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q54" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="R54" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="S54" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="T54" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="U54" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="V54" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="W54" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="X54" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y54" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z54" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="N55" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="O55" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="P55" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="R55" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S55" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="T55" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="U55" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="V55" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="W55" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="X55" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y55" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z55" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="66"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="K57" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="L57" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="M57" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="N57" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="O57" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="P57" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q57" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="R57" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="S57" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="T57" s="76"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="63"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="K58" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="L58" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="M58" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="N58" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="O58" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="P58" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q58" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="R58" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="S58" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="T58" s="77"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="68"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S64" s="75"/>
+    </row>
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P68" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="49">
+    <mergeCell ref="T57:Z58"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="A53:Z53"/>
+    <mergeCell ref="A50:Z50"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A35:Z35"/>
-    <mergeCell ref="A39:Z39"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1856,35 +3646,8 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>